--- a/data/trans_orig/P14A03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A03-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A8F6E25-94DD-408A-9E13-85B963D6BA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B194B28-0A39-4919-89A2-5A25E645CA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E21DA6A2-E4EE-423D-A29B-8FD058D31502}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B60C2C92-7761-43A4-89A8-84A52B26CD56}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="176">
   <si>
     <t>Población que recibe medicación o terapia por hipertensión en 2012 (Tasa respuesta: 18,63%)</t>
   </si>
@@ -84,13 +84,13 @@
     <t>90,22%</t>
   </si>
   <si>
-    <t>69,97%</t>
+    <t>69,9%</t>
   </si>
   <si>
     <t>94,5%</t>
   </si>
   <si>
-    <t>83,32%</t>
+    <t>83,26%</t>
   </si>
   <si>
     <t>No</t>
@@ -108,13 +108,13 @@
     <t>9,78%</t>
   </si>
   <si>
-    <t>30,03%</t>
+    <t>30,1%</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>16,68%</t>
+    <t>16,74%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -123,13 +123,13 @@
     <t>98,44%</t>
   </si>
   <si>
-    <t>95,11%</t>
+    <t>95,07%</t>
   </si>
   <si>
     <t>97,87%</t>
   </si>
   <si>
-    <t>94,31%</t>
+    <t>94,22%</t>
   </si>
   <si>
     <t>99,32%</t>
@@ -138,16 +138,16 @@
     <t>98,13%</t>
   </si>
   <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>4,89%</t>
+    <t>4,93%</t>
   </si>
   <si>
     <t>2,13%</t>
@@ -156,52 +156,46 @@
     <t>0,68%</t>
   </si>
   <si>
-    <t>5,69%</t>
+    <t>5,78%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
+    <t>96,43%</t>
   </si>
   <si>
     <t>98,88%</t>
   </si>
   <si>
-    <t>96,31%</t>
+    <t>96,03%</t>
   </si>
   <si>
     <t>99,07%</t>
   </si>
   <si>
-    <t>97,44%</t>
+    <t>97,29%</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
+    <t>3,57%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>3,69%</t>
+    <t>3,97%</t>
   </si>
   <si>
     <t>0,93%</t>
@@ -210,7 +204,7 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>2,56%</t>
+    <t>2,71%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -222,13 +216,13 @@
     <t>99,27%</t>
   </si>
   <si>
-    <t>96,08%</t>
+    <t>96,36%</t>
   </si>
   <si>
     <t>99,6%</t>
   </si>
   <si>
-    <t>97,86%</t>
+    <t>97,95%</t>
   </si>
   <si>
     <t>1,9%</t>
@@ -237,13 +231,13 @@
     <t>0,73%</t>
   </si>
   <si>
-    <t>3,92%</t>
+    <t>3,64%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>2,14%</t>
+    <t>2,05%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -252,85 +246,91 @@
     <t>97,47%</t>
   </si>
   <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
   </si>
   <si>
     <t>98,52%</t>
   </si>
   <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
   </si>
   <si>
     <t>2,53%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
   </si>
   <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>97,34%</t>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
   </si>
   <si>
     <t>98,62%</t>
   </si>
   <si>
-    <t>97,5%</t>
+    <t>97,61%</t>
   </si>
   <si>
     <t>98,67%</t>
   </si>
   <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>2,66%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>2,5%</t>
+    <t>2,39%</t>
   </si>
   <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -342,85 +342,79 @@
     <t>95,08%</t>
   </si>
   <si>
-    <t>75,83%</t>
+    <t>76,48%</t>
   </si>
   <si>
     <t>95,0%</t>
   </si>
   <si>
-    <t>74,77%</t>
+    <t>73,86%</t>
   </si>
   <si>
     <t>95,04%</t>
   </si>
   <si>
-    <t>83,48%</t>
+    <t>83,94%</t>
   </si>
   <si>
     <t>4,92%</t>
   </si>
   <si>
-    <t>24,17%</t>
+    <t>23,52%</t>
   </si>
   <si>
     <t>5,0%</t>
   </si>
   <si>
-    <t>25,23%</t>
+    <t>26,14%</t>
   </si>
   <si>
     <t>4,96%</t>
   </si>
   <si>
-    <t>16,52%</t>
+    <t>16,06%</t>
   </si>
   <si>
     <t>97,79%</t>
   </si>
   <si>
-    <t>92,22%</t>
+    <t>92,69%</t>
   </si>
   <si>
     <t>97,0%</t>
   </si>
   <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
+    <t>91,2%</t>
   </si>
   <si>
     <t>97,33%</t>
   </si>
   <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
   </si>
   <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>7,78%</t>
+    <t>7,31%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
+    <t>8,8%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
   </si>
   <si>
     <t>98,75%</t>
@@ -429,13 +423,13 @@
     <t>98,25%</t>
   </si>
   <si>
-    <t>93,22%</t>
+    <t>93,79%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>96,68%</t>
+    <t>96,45%</t>
   </si>
   <si>
     <t>1,25%</t>
@@ -444,121 +438,103 @@
     <t>1,75%</t>
   </si>
   <si>
-    <t>6,78%</t>
+    <t>6,21%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>3,32%</t>
+    <t>3,55%</t>
   </si>
   <si>
     <t>95,93%</t>
   </si>
   <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
+    <t>98,94%</t>
   </si>
   <si>
     <t>92,64%</t>
   </si>
   <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
   </si>
   <si>
     <t>94,07%</t>
   </si>
   <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
+    <t>1,06%</t>
   </si>
   <si>
     <t>7,36%</t>
   </si>
   <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
   </si>
   <si>
     <t>5,93%</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
   </si>
   <si>
     <t>99,36%</t>
   </si>
   <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
   </si>
   <si>
     <t>99,39%</t>
   </si>
   <si>
-    <t>97,72%</t>
-  </si>
-  <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
     <t>98,4%</t>
   </si>
   <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
   </si>
   <si>
     <t>97,01%</t>
   </si>
   <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
   </si>
   <si>
     <t>97,63%</t>
@@ -570,19 +546,19 @@
     <t>1,6%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
   </si>
   <si>
     <t>2,37%</t>
@@ -1000,7 +976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03C32DB-A20D-401A-911A-C777801D1A4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354E1644-CAC3-4977-94AB-C77BC438613C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1434,10 +1410,10 @@
         <v>147836</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -1449,10 +1425,10 @@
         <v>191056</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -1464,13 +1440,13 @@
         <v>338892</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1485,13 +1461,13 @@
         <v>1030</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -1500,13 +1476,13 @@
         <v>2167</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -1515,13 +1491,13 @@
         <v>3196</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1577,7 +1553,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1592,7 +1568,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -1604,10 +1580,10 @@
         <v>133763</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -1619,10 +1595,10 @@
         <v>246570</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -1646,7 +1622,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1655,13 +1631,13 @@
         <v>986</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1670,13 +1646,13 @@
         <v>986</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1732,7 +1708,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1744,13 +1720,13 @@
         <v>169514</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>229</v>
@@ -1759,10 +1735,10 @@
         <v>244414</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -1774,13 +1750,13 @@
         <v>413928</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1795,13 +1771,13 @@
         <v>4405</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -1810,13 +1786,13 @@
         <v>1808</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -1825,13 +1801,13 @@
         <v>6213</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1899,13 +1875,13 @@
         <v>566029</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H19" s="7">
         <v>680</v>
@@ -1914,10 +1890,10 @@
         <v>733970</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>31</v>
@@ -1929,13 +1905,13 @@
         <v>1299999</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1950,10 +1926,10 @@
         <v>7311</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>92</v>
@@ -2063,7 +2039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095B4FB4-FCBE-471C-9B8D-40C4C83B5D72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D6E3C7-7D08-4CD1-A59E-27FDBB93DA1B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2363,7 +2339,7 @@
         <v>115</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="M7" s="7">
         <v>183</v>
@@ -2372,13 +2348,13 @@
         <v>188400</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,13 +2369,13 @@
         <v>1758</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -2408,13 +2384,13 @@
         <v>3419</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -2423,13 +2399,13 @@
         <v>5177</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,7 +2476,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2512,10 +2488,10 @@
         <v>172991</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -2527,10 +2503,10 @@
         <v>331276</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -2554,7 +2530,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -2563,13 +2539,13 @@
         <v>3090</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -2578,13 +2554,13 @@
         <v>3090</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,7 +2616,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2652,13 +2628,13 @@
         <v>103996</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H13" s="7">
         <v>110</v>
@@ -2667,13 +2643,13 @@
         <v>130199</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M13" s="7">
         <v>208</v>
@@ -2682,13 +2658,13 @@
         <v>234196</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,13 +2679,13 @@
         <v>4414</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -2718,13 +2694,13 @@
         <v>10349</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -2733,13 +2709,13 @@
         <v>14762</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,7 +2771,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2807,10 +2783,10 @@
         <v>143498</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -2822,10 +2798,10 @@
         <v>179791</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -2837,10 +2813,10 @@
         <v>323289</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -2858,13 +2834,13 @@
         <v>924</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2873,13 +2849,13 @@
         <v>1074</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -2888,13 +2864,13 @@
         <v>1998</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>167</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,13 +2938,13 @@
         <v>505929</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H19" s="7">
         <v>523</v>
@@ -2977,13 +2953,13 @@
         <v>610570</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M19" s="7">
         <v>1023</v>
@@ -2992,13 +2968,13 @@
         <v>1116499</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,13 +2989,13 @@
         <v>8245</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -3028,13 +3004,13 @@
         <v>18833</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="M20" s="7">
         <v>24</v>
@@ -3043,13 +3019,13 @@
         <v>27078</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A03-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B194B28-0A39-4919-89A2-5A25E645CA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43281277-3E8D-4B34-975F-1623F83F59C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B60C2C92-7761-43A4-89A8-84A52B26CD56}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AE56A395-0F63-4C1E-A906-C256D2265067}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="182">
   <si>
     <t>Población que recibe medicación o terapia por hipertensión en 2012 (Tasa respuesta: 18,63%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -84,13 +84,13 @@
     <t>90,22%</t>
   </si>
   <si>
-    <t>69,9%</t>
+    <t>68,87%</t>
   </si>
   <si>
     <t>94,5%</t>
   </si>
   <si>
-    <t>83,26%</t>
+    <t>82,08%</t>
   </si>
   <si>
     <t>No</t>
@@ -108,28 +108,28 @@
     <t>9,78%</t>
   </si>
   <si>
-    <t>30,1%</t>
+    <t>31,13%</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>95,07%</t>
+    <t>94,31%</t>
   </si>
   <si>
     <t>97,87%</t>
   </si>
   <si>
-    <t>94,22%</t>
+    <t>94,28%</t>
   </si>
   <si>
     <t>99,32%</t>
@@ -138,64 +138,70 @@
     <t>98,13%</t>
   </si>
   <si>
-    <t>95,97%</t>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>99,31%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
   </si>
   <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
+    <t>3,44%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>3,97%</t>
+    <t>3,39%</t>
   </si>
   <si>
     <t>0,93%</t>
@@ -204,10 +210,10 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>98,1%</t>
@@ -216,7 +222,7 @@
     <t>99,27%</t>
   </si>
   <si>
-    <t>96,36%</t>
+    <t>96,98%</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -231,7 +237,7 @@
     <t>0,73%</t>
   </si>
   <si>
-    <t>3,64%</t>
+    <t>3,02%</t>
   </si>
   <si>
     <t>0,4%</t>
@@ -246,325 +252,337 @@
     <t>97,47%</t>
   </si>
   <si>
-    <t>94,18%</t>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por hipertensión en 2016 (Tasa respuesta: 15,94%)</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
   </si>
   <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por hipertensión en 2015 (Tasa respuesta: 15,94%)</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
+    <t>3,01%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
+    <t>2,08%</t>
+  </si>
+  <si>
     <t>98,4%</t>
   </si>
   <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
   </si>
   <si>
     <t>97,01%</t>
   </si>
   <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
   </si>
   <si>
     <t>97,63%</t>
   </si>
   <si>
-    <t>98,48%</t>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
   </si>
   <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>1,52%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
   </si>
 </sst>
 </file>
@@ -976,7 +994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354E1644-CAC3-4977-94AB-C77BC438613C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081E6E5E-698B-4895-BD32-064040EDC72A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1410,10 +1428,10 @@
         <v>147836</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -1425,10 +1443,10 @@
         <v>191056</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -1440,13 +1458,13 @@
         <v>338892</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1461,13 +1479,13 @@
         <v>1030</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -1476,13 +1494,13 @@
         <v>2167</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -1491,13 +1509,13 @@
         <v>3196</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1553,7 +1571,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1568,7 +1586,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -1580,10 +1598,10 @@
         <v>133763</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -1595,10 +1613,10 @@
         <v>246570</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -1622,7 +1640,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1631,13 +1649,13 @@
         <v>986</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1646,13 +1664,13 @@
         <v>986</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1708,7 +1726,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1720,13 +1738,13 @@
         <v>169514</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>229</v>
@@ -1735,10 +1753,10 @@
         <v>244414</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -1750,13 +1768,13 @@
         <v>413928</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1771,13 +1789,13 @@
         <v>4405</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -1786,13 +1804,13 @@
         <v>1808</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -1801,13 +1819,13 @@
         <v>6213</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1875,13 +1893,13 @@
         <v>566029</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H19" s="7">
         <v>680</v>
@@ -1890,13 +1908,13 @@
         <v>733970</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M19" s="7">
         <v>1195</v>
@@ -1905,13 +1923,13 @@
         <v>1299999</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1926,13 +1944,13 @@
         <v>7311</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -1941,13 +1959,13 @@
         <v>10267</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -1956,13 +1974,13 @@
         <v>17578</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,7 +2036,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2039,7 +2057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D6E3C7-7D08-4CD1-A59E-27FDBB93DA1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B478C4C-BB01-4FED-A04F-AFE760F8060D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2056,7 +2074,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2163,10 +2181,10 @@
         <v>22184</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -2178,10 +2196,10 @@
         <v>17153</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>11</v>
@@ -2193,10 +2211,10 @@
         <v>39337</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -2214,13 +2232,13 @@
         <v>1149</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2229,13 +2247,13 @@
         <v>902</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -2244,13 +2262,13 @@
         <v>2051</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,10 +2336,10 @@
         <v>77964</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -2333,13 +2351,13 @@
         <v>110436</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M7" s="7">
         <v>183</v>
@@ -2348,13 +2366,13 @@
         <v>188400</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,13 +2387,13 @@
         <v>1758</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -2384,13 +2402,13 @@
         <v>3419</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -2399,13 +2417,13 @@
         <v>5177</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2476,7 +2494,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2488,10 +2506,10 @@
         <v>172991</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -2503,10 +2521,10 @@
         <v>331276</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -2530,7 +2548,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -2539,13 +2557,13 @@
         <v>3090</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -2554,7 +2572,7 @@
         <v>3090</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>19</v>
@@ -2616,7 +2634,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2631,10 +2649,10 @@
         <v>136</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H13" s="7">
         <v>110</v>
@@ -2643,13 +2661,13 @@
         <v>130199</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M13" s="7">
         <v>208</v>
@@ -2658,7 +2676,7 @@
         <v>234196</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>142</v>
@@ -2685,7 +2703,7 @@
         <v>145</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -2694,13 +2712,13 @@
         <v>10349</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -2709,7 +2727,7 @@
         <v>14762</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>150</v>
@@ -2771,7 +2789,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2798,10 +2816,10 @@
         <v>179791</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -2813,10 +2831,10 @@
         <v>323289</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -2834,13 +2852,13 @@
         <v>924</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2849,13 +2867,13 @@
         <v>1074</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -2864,13 +2882,13 @@
         <v>1998</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,13 +2956,13 @@
         <v>505929</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H19" s="7">
         <v>523</v>
@@ -2953,13 +2971,13 @@
         <v>610570</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M19" s="7">
         <v>1023</v>
@@ -2968,13 +2986,13 @@
         <v>1116499</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,13 +3007,13 @@
         <v>8245</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -3004,13 +3022,13 @@
         <v>18833</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M20" s="7">
         <v>24</v>
@@ -3019,13 +3037,13 @@
         <v>27078</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,7 +3099,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
